--- a/biology/Zoologie/Bichon_bolonais/Bichon_bolonais.xlsx
+++ b/biology/Zoologie/Bichon_bolonais/Bichon_bolonais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bichon bolonais est une race italienne très ancienne. La Fédération cynologique internationale reconnaît ces petits chiens blancs sous le nom de Bolognese, d'après la ville de Bologne.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De longueur moyenne : de 20 à 26 cm
 Mâle et femelle peuvent atteindre le même poids: de 2.5 à 3.50 kg
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Connu comme le bichon maltais à l'époque romaine, ce chien était un cadeau très apprécié à cette époque.
 Son origine est d'Italie.
